--- a/Cardiovascular.xlsx
+++ b/Cardiovascular.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9ffda80931a57275/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="28" documentId="8_{7DF87A1C-C052-4B8B-A96F-6BDE47B2947E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2D84A418-A32A-4CD0-9DE5-2DE10225F87B}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6181CD4E-C1E4-4F8E-AB4F-49A1E120ADAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-30495" yWindow="1350" windowWidth="28590" windowHeight="18735" xr2:uid="{21348F3F-9071-4DBC-8E56-2C530C4C4868}"/>
+    <workbookView xWindow="3640" yWindow="2640" windowWidth="21900" windowHeight="14640" xr2:uid="{21348F3F-9071-4DBC-8E56-2C530C4C4868}"/>
   </bookViews>
   <sheets>
     <sheet name="Drugs" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="46">
   <si>
     <t>Generic</t>
   </si>
@@ -153,14 +153,42 @@
   </si>
   <si>
     <t>EOL</t>
+  </si>
+  <si>
+    <t>olpasiran</t>
+  </si>
+  <si>
+    <t>Approved</t>
+  </si>
+  <si>
+    <t>III</t>
+  </si>
+  <si>
+    <t>Phase</t>
+  </si>
+  <si>
+    <t>AMG 890</t>
+  </si>
+  <si>
+    <t>Lp(a) siRNA</t>
+  </si>
+  <si>
+    <t>Amgen</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -187,11 +215,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -212,9 +241,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -252,7 +281,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -358,7 +387,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -500,7 +529,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -508,27 +537,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AA7FFA1-96FD-41FD-B600-A83504E66E28}">
-  <dimension ref="B2:G14"/>
+  <dimension ref="B2:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="4" max="4" width="26.28515625" customWidth="1"/>
-    <col min="5" max="5" width="19.28515625" customWidth="1"/>
-    <col min="6" max="6" width="11.85546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="1"/>
+    <col min="4" max="4" width="26.26953125" customWidth="1"/>
+    <col min="5" max="5" width="19.26953125" customWidth="1"/>
+    <col min="6" max="6" width="11.81640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -547,8 +576,11 @@
       <c r="G2" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="H2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>1</v>
       </c>
@@ -562,7 +594,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>2</v>
       </c>
@@ -576,7 +608,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>5</v>
       </c>
@@ -590,7 +622,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>6</v>
       </c>
@@ -604,7 +636,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>13</v>
       </c>
@@ -618,7 +650,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>14</v>
       </c>
@@ -632,7 +664,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>24</v>
       </c>
@@ -646,7 +678,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>25</v>
       </c>
@@ -660,7 +692,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>34</v>
       </c>
@@ -680,7 +712,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>29</v>
       </c>
@@ -688,17 +720,39 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>30</v>
       </c>
       <c r="C14" t="s">
         <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H17" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" t="s">
+        <v>44</v>
+      </c>
+      <c r="E18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
